--- a/gaza_nutrition/inputs/gaza_nutrition_parameters.xlsx
+++ b/gaza_nutrition/inputs/gaza_nutrition_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF645FA-9C7D-4395-816F-1D568A5ED812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B21775-A63D-44C6-9B9D-4EE854732058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>parameter</t>
   </si>
@@ -239,13 +239,41 @@
   </si>
   <si>
     <t>best</t>
+  </si>
+  <si>
+    <t>wt_loss_child_min</t>
+  </si>
+  <si>
+    <t>wt_loss_child_max</t>
+  </si>
+  <si>
+    <t>minimum of range</t>
+  </si>
+  <si>
+    <t>maximum of range</t>
+  </si>
+  <si>
+    <t>weight loss of children, relative to adults</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>total population of Gaza</t>
+  </si>
+  <si>
+    <t>as of 7 Oct 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +293,13 @@
       <color theme="6" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -305,10 +340,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -376,8 +412,15 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -694,17 +737,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583212BB-FE43-40DF-83EF-3CBB0F7B7681}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -882,11 +925,21 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.7</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -902,11 +955,21 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1.3</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -922,11 +985,21 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2226544</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1018,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4FB4F9-97EA-424F-A01D-E09E32344901}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/gaza_nutrition/inputs/gaza_nutrition_parameters.xlsx
+++ b/gaza_nutrition/inputs/gaza_nutrition_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B21775-A63D-44C6-9B9D-4EE854732058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385FB525-DBEF-4B5F-891E-28920C3D419A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>parameter</t>
   </si>
@@ -172,9 +172,6 @@
     <t>7Feb2024</t>
   </si>
   <si>
-    <t>6 Aug2024</t>
-  </si>
-  <si>
     <t>date_crisis</t>
   </si>
   <si>
@@ -263,6 +260,60 @@
   </si>
   <si>
     <t>as of 7 Oct 2023</t>
+  </si>
+  <si>
+    <t>intake_target</t>
+  </si>
+  <si>
+    <t>recommended daily intake (Kcal/day)</t>
+  </si>
+  <si>
+    <t>all ages, genders</t>
+  </si>
+  <si>
+    <t>n of people's daily intake that 1 MT of food aid will cover</t>
+  </si>
+  <si>
+    <t>minimum of range - based on recommended intake</t>
+  </si>
+  <si>
+    <t>people_per_mt_min</t>
+  </si>
+  <si>
+    <t>people_per_mt_max</t>
+  </si>
+  <si>
+    <t>maximum of range - based on recommended intake</t>
+  </si>
+  <si>
+    <t>mt_per_truck_min</t>
+  </si>
+  <si>
+    <t>mt_per_truck_max</t>
+  </si>
+  <si>
+    <t>n of MT per truck</t>
+  </si>
+  <si>
+    <t>minimum of range - small truck</t>
+  </si>
+  <si>
+    <t>maximum of range - big truck</t>
+  </si>
+  <si>
+    <t>date_mid</t>
+  </si>
+  <si>
+    <t>mid-point of projection period</t>
+  </si>
+  <si>
+    <t>start of sub-period 2</t>
+  </si>
+  <si>
+    <t>7May2024</t>
+  </si>
+  <si>
+    <t>6Aug2024</t>
   </si>
 </sst>
 </file>
@@ -271,7 +322,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -412,10 +463,10 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -423,7 +474,21 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -735,24 +800,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583212BB-FE43-40DF-83EF-3CBB0F7B7681}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -814,17 +880,17 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -842,17 +908,17 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -870,17 +936,19 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -898,17 +966,17 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11">
-        <v>100</v>
+      <c r="E5" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -926,19 +994,17 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="23">
-        <v>0.7</v>
+      <c r="E6" s="24">
+        <v>100</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -956,19 +1022,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="23">
-        <v>1.3</v>
+      <c r="E7" s="4">
+        <v>0.7</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -986,19 +1052,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24">
-        <v>2226544</v>
+      <c r="E8" s="4">
+        <v>1.3</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1015,11 +1081,21 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="23">
+        <v>2226544</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1035,11 +1111,21 @@
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2100</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1054,27 +1140,157 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1460</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1860</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10">
+  <conditionalFormatting sqref="E2:E14">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>$D2="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:R6">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$D2="Y"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:R14">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$D3="N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:R5">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="E2:R2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:R10">
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="F2:R2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D2="N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1092,7 +1308,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1113,27 +1329,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>14</v>
@@ -1147,13 +1363,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
@@ -1162,18 +1378,18 @@
         <v>0.9</v>
       </c>
       <c r="F3" s="15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>14</v>
@@ -1187,13 +1403,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>15</v>
@@ -1207,13 +1423,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>15</v>
@@ -1222,18 +1438,18 @@
         <v>0.9</v>
       </c>
       <c r="F6" s="15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>15</v>
@@ -1308,24 +1524,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="21">
         <v>1</v>
@@ -1342,10 +1558,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21">
         <v>2</v>
@@ -1362,10 +1578,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21">
         <v>3</v>
@@ -1382,10 +1598,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21">
         <v>4</v>
@@ -1402,10 +1618,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
@@ -1422,10 +1638,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21">
         <v>2</v>
@@ -1442,10 +1658,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21">
         <v>3</v>
@@ -1462,10 +1678,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21">
         <v>4</v>
@@ -1527,10 +1743,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1590,35 +1806,35 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/gaza_nutrition/inputs/gaza_nutrition_parameters.xlsx
+++ b/gaza_nutrition/inputs/gaza_nutrition_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza_nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F717FD1-7499-45ED-B8D4-A2AED26DDE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD899025-711F-433C-BB67-3C917570851A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -185,9 +185,6 @@
     <t>scenario</t>
   </si>
   <si>
-    <t>central</t>
-  </si>
-  <si>
     <t>pessimistic projection scenario</t>
   </si>
   <si>
@@ -230,12 +227,6 @@
     <t>month</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>wt_loss_child_min</t>
   </si>
   <si>
@@ -360,6 +351,15 @@
   </si>
   <si>
     <t>rr</t>
+  </si>
+  <si>
+    <t>escalation</t>
+  </si>
+  <si>
+    <t>ceasefire</t>
+  </si>
+  <si>
+    <t>status quo</t>
   </si>
 </sst>
 </file>
@@ -972,19 +972,19 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1012,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -1088,13 +1088,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -1118,13 +1118,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
@@ -1148,13 +1148,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
@@ -1208,13 +1208,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -1238,13 +1238,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
@@ -1298,13 +1298,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -1328,13 +1328,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -1394,14 +1394,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
@@ -1421,21 +1421,21 @@
         <v>7</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>14</v>
@@ -1449,13 +1449,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>14</v>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>15</v>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>15</v>
@@ -1529,13 +1529,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>15</v>
@@ -1589,7 +1589,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1610,24 +1610,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="21">
         <v>1</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21">
         <v>2</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21">
         <v>3</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21">
         <v>4</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21">
         <v>5</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21">
         <v>6</v>
@@ -1744,10 +1744,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21">
         <v>7</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="21">
         <v>8</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21">
         <v>9</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="21">
         <v>10</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="21">
         <v>1</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="21">
         <v>2</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="21">
         <v>3</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="21">
         <v>4</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="21">
         <v>5</v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="21">
         <v>6</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="21">
         <v>7</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="21">
         <v>8</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="21">
         <v>9</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="21">
         <v>10</v>
@@ -2049,21 +2049,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4">
         <v>0.48</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4">
         <v>0.59599999999999997</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4">
         <v>0.42599999999999999</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4">
         <v>0.42599999999999999</v>
@@ -2137,7 +2137,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,10 +2174,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2240,10 +2240,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2251,10 +2251,10 @@
         <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2262,10 +2262,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/gaza_nutrition/inputs/gaza_nutrition_parameters.xlsx
+++ b/gaza_nutrition/inputs/gaza_nutrition_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza\gaza_nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD899025-711F-433C-BB67-3C917570851A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B0EE6A-A595-48D9-97AF-FF9932B401BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/gaza_nutrition/inputs/gaza_nutrition_parameters.xlsx
+++ b/gaza_nutrition/inputs/gaza_nutrition_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza\gaza_nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_projections-main\gaza_nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B0EE6A-A595-48D9-97AF-FF9932B401BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB48B2D7-1108-40F3-80C4-4DC374644F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
